--- a/results/english/rand_eng.xlsx
+++ b/results/english/rand_eng.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVI\PycharmProjects\useGensim\results\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C9303B7-04D3-4BCE-91DE-C9E0BFB7C4A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4F01E8-A156-4D4F-A5FA-71DF34BDFA73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result number0" sheetId="1" r:id="rId1"/>
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1311,7 +1311,397 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1716,22 +2106,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="A4:M25" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A4:M25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="טבלה1" displayName="טבלה1" ref="A4:M25" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A4:M25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="vector dim" dataDxfId="14"/>
-    <tableColumn id="2" name="words number" dataDxfId="13"/>
-    <tableColumn id="3" name="num of vec" dataDxfId="12"/>
-    <tableColumn id="4" name="num of result" dataDxfId="11"/>
-    <tableColumn id="5" name="good results" dataDxfId="10"/>
-    <tableColumn id="6" name="good results in the first 20" dataDxfId="9"/>
-    <tableColumn id="7" name="Precision (good res / all res)" dataDxfId="8"/>
-    <tableColumn id="8" name="Recall" dataDxfId="7"/>
-    <tableColumn id="9" name="f1" dataDxfId="6"/>
-    <tableColumn id="10" name="Average Precision" dataDxfId="5"/>
-    <tableColumn id="11" name="num of not classified words" dataDxfId="4"/>
-    <tableColumn id="12" name="removed word" dataDxfId="3"/>
-    <tableColumn id="13" name="radius" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="vector dim" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="words number" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="num of vec" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="num of result" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="good results" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="good results in the first 20" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Precision (good res / all res)" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Recall" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="f1" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Average Precision" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="num of not classified words" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="removed word" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="radius" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{875D8F37-9652-49F4-A8BD-AC7526C21876}" name="טבלה3" displayName="טבלה3" ref="A4:M25" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A4:M25" xr:uid="{AA7E98CC-053C-4204-8C81-5F4E3FCDF2E0}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{EB64170B-D316-4B41-B46A-B90F6864134C}" name="vector dim" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{ADC639BB-A140-423C-B462-12DFBCF39C04}" name="words number" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{7E5E7FAC-81B8-4740-A4E7-87E5D833A565}" name="num of vec" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{D482F00E-8B79-442D-8C3D-EFFADBA7C0F2}" name="num of result" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E944B2B5-6896-427C-A075-DAD635C8EE5A}" name="good results" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{24EB4025-FF33-494E-A5AE-E00CB61BFD2E}" name="good results in the first 20" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{7A7D45D3-C7B6-4640-A19C-5C95DF7880D2}" name="Precision (good res / all res)" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{19989D43-FBFE-43F5-A578-129CA2B50E67}" name="Recall" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{1C815D2B-E645-4847-B562-0D31B504756D}" name="f1" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{E87E8B70-B3D1-4FC3-87DE-DD2BF5AB7011}" name="Average Precision" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{4739DE5F-16B5-4D49-8647-D6BAD44FD190}" name="num of not classified words" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{B53EAC30-3F8F-4E89-99D6-D71732DE04C0}" name="removed word" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{78F281FD-E810-451F-BEF8-A9BC46737B44}" name="radius" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2033,7 +2445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3111,7 +3523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4189,14 +4601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5270,7 +5682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -6348,7 +6760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7426,30 +7838,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
@@ -7592,919 +8004,922 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>300</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>300</v>
+      </c>
+      <c r="B5" s="2">
         <v>45</v>
       </c>
-      <c r="C5" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D5" s="2">
         <v>1387661</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>1627</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>1.1724765630798876E-3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0.98248792270531404</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>2.3421580532016809E-3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>1.1913658811417758E-4</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>1384418</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
         <v>0.17976312339305878</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>300</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>300</v>
+      </c>
+      <c r="B6" s="2">
         <v>44</v>
       </c>
-      <c r="C6" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D6" s="2">
         <v>1141873</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>1618</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>1.4169701884535321E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.97705314009661837</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>2.8298364099205182E-3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>1.4383815812825729E-4</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>1138639</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>0.19752523303031921</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>300</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>300</v>
+      </c>
+      <c r="B7" s="2">
         <v>43</v>
       </c>
-      <c r="C7" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D7" s="2">
         <v>583935</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>1573</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>9</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>2.6937929735330133E-3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>0.9498792270531401</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>5.3723503264223663E-3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>2.8531127859766475E-4</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>580746</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>0.2503829300403595</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>300</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>300</v>
+      </c>
+      <c r="B8" s="2">
         <v>42</v>
       </c>
-      <c r="C8" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D8" s="2">
         <v>453183</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>1550</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>9</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>3.4202518629339583E-3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>0.93599033816425126</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>6.8155984864974196E-3</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>3.7923330386958767E-4</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>450017</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>0.26841172575950623</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>300</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>300</v>
+      </c>
+      <c r="B9" s="2">
         <v>41</v>
       </c>
-      <c r="C9" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D9" s="2">
         <v>411775</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>1538</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>3.7350494809058345E-3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>0.92874396135265702</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>7.4401774419431532E-3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>4.081958649022648E-4</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>408621</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>0.27353033423423767</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>300</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="10" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>300</v>
+      </c>
+      <c r="B10" s="2">
         <v>40</v>
       </c>
-      <c r="C10" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D10" s="2">
         <v>332634</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>1516</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>8</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>4.5575617645820929E-3</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>0.91545893719806759</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>9.0699691884292069E-3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>4.9873648762179391E-4</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>329502</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>0.28495091199874878</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>300</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>300</v>
+      </c>
+      <c r="B11" s="2">
         <v>39</v>
       </c>
-      <c r="C11" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D11" s="2">
         <v>199357</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>1481</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>8</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>7.4288838616150925E-3</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>0.89432367149758452</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>1.4735365374378771E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>8.3399937686130061E-4</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>196270</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>0.31420049071311951</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>300</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="12" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>300</v>
+      </c>
+      <c r="B12" s="2">
         <v>38</v>
       </c>
-      <c r="C12" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D12" s="2">
         <v>151405</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>1453</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>6</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>9.5967768567748746E-3</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>0.87741545893719808</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>1.8985894512645284E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>1.0713791182580545E-3</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>148381</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <v>0.32794225215911865</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>300</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="13" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>300</v>
+      </c>
+      <c r="B13" s="2">
         <v>37</v>
       </c>
-      <c r="C13" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D13" s="2">
         <v>130158</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>1433</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>7</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>1.1009695908050217E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>0.86533816425120769</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>2.1742758735794378E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>1.2787932836065589E-3</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <v>127161</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <v>0.33561879396438599</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>300</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="14" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>300</v>
+      </c>
+      <c r="B14" s="2">
         <v>36</v>
       </c>
-      <c r="C14" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D14" s="2">
         <v>120247</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>1426</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>7</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>1.1858923715352566E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>0.86111111111111116</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>2.3395650640263159E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>1.4207966250464636E-3</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <v>117263</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="2">
         <v>0.33994284272193909</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>300</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="15" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>300</v>
+      </c>
+      <c r="B15" s="2">
         <v>35</v>
       </c>
-      <c r="C15" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D15" s="2">
         <v>91011</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>1397</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>1.5349792882179077E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>0.84359903381642509</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>3.0150970679961583E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>1.823846907819019E-3</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <v>88105</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <v>0.35449784994125366</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>300</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="16" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>300</v>
+      </c>
+      <c r="B16" s="2">
         <v>34</v>
       </c>
-      <c r="C16" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D16" s="2">
         <v>87760</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>1388</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>7</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>1.5815861440291706E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>0.83816425120772942</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>3.1045897825892465E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>1.8587948375288611E-3</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>84885</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>0.35566940903663635</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>300</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>300</v>
+      </c>
+      <c r="B17" s="2">
         <v>33</v>
       </c>
-      <c r="C17" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D17" s="2">
         <v>58811</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>1327</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>6</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>2.256380609069732E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>0.80132850241545894</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>4.3891709527510883E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>2.6451226902406443E-3</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <v>56175</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="2">
         <v>0.37804415822029114</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>300</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>300</v>
+      </c>
+      <c r="B18" s="2">
         <v>32</v>
       </c>
-      <c r="C18" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D18" s="2">
         <v>46103</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>1283</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>5</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>2.7828991605752338E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>0.77475845410628019</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <v>5.372809313427835E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>3.3214355714576422E-3</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <v>43641</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="2">
         <v>0.39155566692352295</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>300</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>300</v>
+      </c>
+      <c r="B19" s="2">
         <v>31</v>
       </c>
-      <c r="C19" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D19" s="2">
         <v>42957</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>1269</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>2.9541169076052799E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>0.76630434782608692</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="2">
         <v>5.688924752874723E-2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <v>3.5120300256178548E-3</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <v>40515</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="2">
         <v>0.3980235755443573</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>300</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>300</v>
+      </c>
+      <c r="B20" s="2">
         <v>30</v>
       </c>
-      <c r="C20" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D20" s="2">
         <v>23758</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>1137</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>5</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>4.7857563767993938E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>0.68659420289855078</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>8.9478240339970094E-2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>6.0213150553613771E-3</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <v>21836</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="2">
         <v>0.43341916799545288</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>300</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>300</v>
+      </c>
+      <c r="B21" s="2">
         <v>29</v>
       </c>
-      <c r="C21" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D21" s="2">
         <v>26098</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>1147</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>6</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>4.3949727948501799E-2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>0.69263285024154586</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>8.2654752468112699E-2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>5.3608189047413355E-3</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <v>24172</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="2">
         <v>0.4286666214466095</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>300</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>300</v>
+      </c>
+      <c r="B22" s="2">
         <v>28</v>
       </c>
-      <c r="C22" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D22" s="2">
         <v>20131</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>1079</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>6</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>5.3598927027966814E-2</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>0.65157004830917875</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>9.9049892137513196E-2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>6.6533613368586061E-3</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <v>18471</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="2">
         <v>0.44413414597511292</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>300</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>300</v>
+      </c>
+      <c r="B23" s="2">
         <v>27</v>
       </c>
-      <c r="C23" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D23" s="2">
         <v>20972</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>1090</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>5</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>5.1974060652298301E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>0.65821256038647347</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>9.6340816687290096E-2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>6.6633075176161499E-3</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <v>19237</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="2">
         <v>0.43892526626586914</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>300</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>300</v>
+      </c>
+      <c r="B24" s="2">
         <v>26</v>
       </c>
-      <c r="C24" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D24" s="2">
         <v>12914</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>939</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>7</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>7.2711785658974751E-2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>0.56702898550724634</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>0.12889498970487304</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>1.0806525347980416E-2</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <v>11498</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="2">
         <v>0.46521478891372681</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>300</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>300</v>
+      </c>
+      <c r="B25" s="2">
         <v>25</v>
       </c>
-      <c r="C25" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D25" s="2">
         <v>10097</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>840</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>5</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>8.3193027631969896E-2</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>0.50724637681159424</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>0.14294222751637881</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>1.2623441354674667E-2</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <v>8955</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="2">
         <v>0.48010891675949097</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;P</oddHeader>
     <oddFooter>&amp;F</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9582,7 +9997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10661,7 +11076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11739,7 +12154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
